--- a/_templates/Operational-Logistics-Board/Log_Messages_en.xlsx
+++ b/_templates/Operational-Logistics-Board/Log_Messages_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiashaas/git/peakboard-templates/_templates/Operational_Logistics_Board/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiashaas/git/peakboard-templates/_templates/Operational-Logistics-Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8568BCEA-E78D-184D-B0F6-E2387172A22B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBEA243-6A6C-5242-9330-B6621D3F4A7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-56540" yWindow="-4180" windowWidth="36780" windowHeight="28080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44020" yWindow="-4060" windowWidth="36780" windowHeight="28080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <t>HR Aisle #32</t>
   </si>
   <si>
-    <t>Package to heavy</t>
-  </si>
-  <si>
     <t>Cold chain interrupted</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>Wet detection. Liquid leaked.</t>
+  </si>
+  <si>
+    <t>Loading to heavy</t>
   </si>
 </sst>
 </file>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F869"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A794" workbookViewId="0">
-      <selection activeCell="G868" sqref="G868"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -590,7 +590,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -607,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -627,7 +627,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -644,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -664,7 +664,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -681,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -715,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -746,10 +746,10 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -763,10 +763,10 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
         <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -780,10 +780,10 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -800,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -817,7 +817,7 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -834,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -851,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -868,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -885,7 +885,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -902,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -919,7 +919,7 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -936,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -970,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -1004,7 +1004,7 @@
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -1021,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -1038,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -1055,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -1072,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -1089,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -1123,7 +1123,7 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -1140,7 +1140,7 @@
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -1157,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -1174,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -1191,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -1208,7 +1208,7 @@
         <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1225,7 +1225,7 @@
         <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1242,7 +1242,7 @@
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -1259,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -1276,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -1293,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -1310,7 +1310,7 @@
         <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -1327,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -1344,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -1361,7 +1361,7 @@
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -1378,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -1395,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -1412,7 +1412,7 @@
         <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -1429,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -1446,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -1463,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -1480,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -1514,7 +1514,7 @@
         <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -1548,7 +1548,7 @@
         <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -1582,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -1599,7 +1599,7 @@
         <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -1616,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -1633,7 +1633,7 @@
         <v>4</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -1650,7 +1650,7 @@
         <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
@@ -1667,7 +1667,7 @@
         <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
@@ -1684,7 +1684,7 @@
         <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -1701,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
@@ -1718,7 +1718,7 @@
         <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
@@ -1735,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -1752,7 +1752,7 @@
         <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -1769,7 +1769,7 @@
         <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
@@ -1786,7 +1786,7 @@
         <v>4</v>
       </c>
       <c r="F72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
@@ -1820,7 +1820,7 @@
         <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
@@ -1837,7 +1837,7 @@
         <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
@@ -1854,7 +1854,7 @@
         <v>4</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
@@ -1871,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
@@ -1888,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -1905,7 +1905,7 @@
         <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -1922,7 +1922,7 @@
         <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -1939,7 +1939,7 @@
         <v>4</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
@@ -1956,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
@@ -1990,7 +1990,7 @@
         <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -2007,7 +2007,7 @@
         <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -2024,7 +2024,7 @@
         <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
@@ -2041,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -2058,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
@@ -2075,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -2092,7 +2092,7 @@
         <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -2109,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
@@ -2126,7 +2126,7 @@
         <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
@@ -2143,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
@@ -2160,7 +2160,7 @@
         <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
@@ -2177,7 +2177,7 @@
         <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
@@ -2194,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
@@ -2211,7 +2211,7 @@
         <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
@@ -2228,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
@@ -2245,7 +2245,7 @@
         <v>4</v>
       </c>
       <c r="F99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
@@ -2262,7 +2262,7 @@
         <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
@@ -2279,7 +2279,7 @@
         <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
@@ -2296,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
@@ -2313,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
@@ -2330,7 +2330,7 @@
         <v>4</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
@@ -2347,7 +2347,7 @@
         <v>4</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
@@ -2364,7 +2364,7 @@
         <v>4</v>
       </c>
       <c r="F106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
@@ -2381,7 +2381,7 @@
         <v>4</v>
       </c>
       <c r="F107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
@@ -2398,7 +2398,7 @@
         <v>4</v>
       </c>
       <c r="F108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
@@ -2415,7 +2415,7 @@
         <v>4</v>
       </c>
       <c r="F109" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
@@ -2432,7 +2432,7 @@
         <v>4</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
@@ -2449,7 +2449,7 @@
         <v>4</v>
       </c>
       <c r="F111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
@@ -2483,7 +2483,7 @@
         <v>4</v>
       </c>
       <c r="F113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
@@ -2500,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
@@ -2517,7 +2517,7 @@
         <v>4</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
@@ -2534,7 +2534,7 @@
         <v>4</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
@@ -2551,7 +2551,7 @@
         <v>4</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
@@ -2568,7 +2568,7 @@
         <v>4</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
@@ -2585,7 +2585,7 @@
         <v>4</v>
       </c>
       <c r="F119" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
@@ -2602,7 +2602,7 @@
         <v>4</v>
       </c>
       <c r="F120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
@@ -2619,7 +2619,7 @@
         <v>4</v>
       </c>
       <c r="F121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
@@ -2636,7 +2636,7 @@
         <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
@@ -2653,7 +2653,7 @@
         <v>4</v>
       </c>
       <c r="F123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
@@ -2670,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
@@ -2687,7 +2687,7 @@
         <v>4</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
@@ -2704,7 +2704,7 @@
         <v>4</v>
       </c>
       <c r="F126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
@@ -2721,7 +2721,7 @@
         <v>4</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
@@ -2738,7 +2738,7 @@
         <v>4</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
@@ -2755,7 +2755,7 @@
         <v>4</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
@@ -2772,7 +2772,7 @@
         <v>4</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
@@ -2789,7 +2789,7 @@
         <v>4</v>
       </c>
       <c r="F131" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
@@ -2806,7 +2806,7 @@
         <v>4</v>
       </c>
       <c r="F132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
@@ -2823,7 +2823,7 @@
         <v>4</v>
       </c>
       <c r="F133" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
@@ -2840,7 +2840,7 @@
         <v>4</v>
       </c>
       <c r="F134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
@@ -2857,7 +2857,7 @@
         <v>4</v>
       </c>
       <c r="F135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
@@ -2874,7 +2874,7 @@
         <v>4</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
@@ -2891,7 +2891,7 @@
         <v>4</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
@@ -2908,7 +2908,7 @@
         <v>4</v>
       </c>
       <c r="F138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
@@ -2925,7 +2925,7 @@
         <v>4</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
@@ -2942,7 +2942,7 @@
         <v>4</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
@@ -2959,7 +2959,7 @@
         <v>4</v>
       </c>
       <c r="F141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
@@ -2976,7 +2976,7 @@
         <v>4</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
@@ -2993,7 +2993,7 @@
         <v>4</v>
       </c>
       <c r="F143" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
@@ -3010,7 +3010,7 @@
         <v>4</v>
       </c>
       <c r="F144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
@@ -3027,7 +3027,7 @@
         <v>4</v>
       </c>
       <c r="F145" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
@@ -3044,7 +3044,7 @@
         <v>4</v>
       </c>
       <c r="F146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
@@ -3061,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="F147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
@@ -3078,7 +3078,7 @@
         <v>4</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
@@ -3095,7 +3095,7 @@
         <v>4</v>
       </c>
       <c r="F149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
@@ -3112,7 +3112,7 @@
         <v>4</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
@@ -3129,7 +3129,7 @@
         <v>4</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
@@ -3146,7 +3146,7 @@
         <v>4</v>
       </c>
       <c r="F152" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
@@ -3163,7 +3163,7 @@
         <v>4</v>
       </c>
       <c r="F153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
@@ -3180,7 +3180,7 @@
         <v>4</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
@@ -3197,7 +3197,7 @@
         <v>4</v>
       </c>
       <c r="F155" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
@@ -3214,7 +3214,7 @@
         <v>4</v>
       </c>
       <c r="F156" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
@@ -3231,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="F157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
@@ -3248,7 +3248,7 @@
         <v>4</v>
       </c>
       <c r="F158" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
@@ -3265,7 +3265,7 @@
         <v>4</v>
       </c>
       <c r="F159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
@@ -3282,7 +3282,7 @@
         <v>4</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
@@ -3299,7 +3299,7 @@
         <v>4</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
@@ -3316,7 +3316,7 @@
         <v>4</v>
       </c>
       <c r="F162" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
@@ -3333,7 +3333,7 @@
         <v>4</v>
       </c>
       <c r="F163" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
@@ -3350,7 +3350,7 @@
         <v>4</v>
       </c>
       <c r="F164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
@@ -3367,7 +3367,7 @@
         <v>4</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
@@ -3384,7 +3384,7 @@
         <v>4</v>
       </c>
       <c r="F166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
@@ -3401,7 +3401,7 @@
         <v>4</v>
       </c>
       <c r="F167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
@@ -3418,7 +3418,7 @@
         <v>4</v>
       </c>
       <c r="F168" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
@@ -3435,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="F169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
@@ -3452,7 +3452,7 @@
         <v>4</v>
       </c>
       <c r="F170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
@@ -3469,7 +3469,7 @@
         <v>4</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
@@ -3486,7 +3486,7 @@
         <v>4</v>
       </c>
       <c r="F172" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
@@ -3503,7 +3503,7 @@
         <v>4</v>
       </c>
       <c r="F173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
@@ -3520,7 +3520,7 @@
         <v>4</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
@@ -3537,7 +3537,7 @@
         <v>4</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
@@ -3554,7 +3554,7 @@
         <v>4</v>
       </c>
       <c r="F176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
@@ -3571,7 +3571,7 @@
         <v>4</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
@@ -3588,7 +3588,7 @@
         <v>4</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
@@ -3605,7 +3605,7 @@
         <v>4</v>
       </c>
       <c r="F179" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.15">
@@ -3622,7 +3622,7 @@
         <v>4</v>
       </c>
       <c r="F180" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.15">
@@ -3639,7 +3639,7 @@
         <v>4</v>
       </c>
       <c r="F181" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.15">
@@ -3656,7 +3656,7 @@
         <v>4</v>
       </c>
       <c r="F182" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.15">
@@ -3673,7 +3673,7 @@
         <v>4</v>
       </c>
       <c r="F183" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.15">
@@ -3690,7 +3690,7 @@
         <v>4</v>
       </c>
       <c r="F184" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.15">
@@ -3707,7 +3707,7 @@
         <v>4</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.15">
@@ -3724,7 +3724,7 @@
         <v>4</v>
       </c>
       <c r="F186" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.15">
@@ -3741,7 +3741,7 @@
         <v>4</v>
       </c>
       <c r="F187" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.15">
@@ -3758,7 +3758,7 @@
         <v>4</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.15">
@@ -3775,7 +3775,7 @@
         <v>4</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.15">
@@ -3792,7 +3792,7 @@
         <v>4</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.15">
@@ -3809,7 +3809,7 @@
         <v>4</v>
       </c>
       <c r="F191" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.15">
@@ -3826,7 +3826,7 @@
         <v>4</v>
       </c>
       <c r="F192" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.15">
@@ -3843,7 +3843,7 @@
         <v>4</v>
       </c>
       <c r="F193" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.15">
@@ -3860,7 +3860,7 @@
         <v>4</v>
       </c>
       <c r="F194" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.15">
@@ -3877,7 +3877,7 @@
         <v>4</v>
       </c>
       <c r="F195" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.15">
@@ -3894,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.15">
@@ -3911,7 +3911,7 @@
         <v>4</v>
       </c>
       <c r="F197" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.15">
@@ -3928,7 +3928,7 @@
         <v>4</v>
       </c>
       <c r="F198" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.15">
@@ -3945,7 +3945,7 @@
         <v>4</v>
       </c>
       <c r="F199" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.15">
@@ -3962,7 +3962,7 @@
         <v>4</v>
       </c>
       <c r="F200" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.15">
@@ -3979,7 +3979,7 @@
         <v>4</v>
       </c>
       <c r="F201" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.15">
@@ -3996,7 +3996,7 @@
         <v>4</v>
       </c>
       <c r="F202" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.15">
@@ -4013,7 +4013,7 @@
         <v>4</v>
       </c>
       <c r="F203" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.15">
@@ -4030,7 +4030,7 @@
         <v>4</v>
       </c>
       <c r="F204" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.15">
@@ -4047,7 +4047,7 @@
         <v>4</v>
       </c>
       <c r="F205" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.15">
@@ -4064,7 +4064,7 @@
         <v>4</v>
       </c>
       <c r="F206" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.15">
@@ -4081,7 +4081,7 @@
         <v>4</v>
       </c>
       <c r="F207" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.15">
@@ -4098,7 +4098,7 @@
         <v>4</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
@@ -4115,7 +4115,7 @@
         <v>4</v>
       </c>
       <c r="F209" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.15">
@@ -4132,7 +4132,7 @@
         <v>4</v>
       </c>
       <c r="F210" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.15">
@@ -4149,7 +4149,7 @@
         <v>4</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.15">
@@ -4166,7 +4166,7 @@
         <v>4</v>
       </c>
       <c r="F212" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.15">
@@ -4183,7 +4183,7 @@
         <v>4</v>
       </c>
       <c r="F213" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
@@ -4200,7 +4200,7 @@
         <v>4</v>
       </c>
       <c r="F214" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
@@ -4217,7 +4217,7 @@
         <v>4</v>
       </c>
       <c r="F215" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.15">
@@ -4234,7 +4234,7 @@
         <v>4</v>
       </c>
       <c r="F216" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.15">
@@ -4251,7 +4251,7 @@
         <v>4</v>
       </c>
       <c r="F217" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.15">
@@ -4268,7 +4268,7 @@
         <v>4</v>
       </c>
       <c r="F218" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
@@ -4285,7 +4285,7 @@
         <v>4</v>
       </c>
       <c r="F219" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.15">
@@ -4302,7 +4302,7 @@
         <v>4</v>
       </c>
       <c r="F220" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.15">
@@ -4319,7 +4319,7 @@
         <v>4</v>
       </c>
       <c r="F221" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.15">
@@ -4336,7 +4336,7 @@
         <v>4</v>
       </c>
       <c r="F222" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.15">
@@ -4353,7 +4353,7 @@
         <v>4</v>
       </c>
       <c r="F223" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.15">
@@ -4370,7 +4370,7 @@
         <v>4</v>
       </c>
       <c r="F224" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.15">
@@ -4387,7 +4387,7 @@
         <v>4</v>
       </c>
       <c r="F225" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.15">
@@ -4404,7 +4404,7 @@
         <v>4</v>
       </c>
       <c r="F226" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.15">
@@ -4421,7 +4421,7 @@
         <v>4</v>
       </c>
       <c r="F227" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.15">
@@ -4438,7 +4438,7 @@
         <v>4</v>
       </c>
       <c r="F228" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.15">
@@ -4455,7 +4455,7 @@
         <v>4</v>
       </c>
       <c r="F229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.15">
@@ -4472,7 +4472,7 @@
         <v>4</v>
       </c>
       <c r="F230" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.15">
@@ -4489,7 +4489,7 @@
         <v>4</v>
       </c>
       <c r="F231" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.15">
@@ -4506,7 +4506,7 @@
         <v>4</v>
       </c>
       <c r="F232" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.15">
@@ -4523,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="F233" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.15">
@@ -4540,7 +4540,7 @@
         <v>4</v>
       </c>
       <c r="F234" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.15">
@@ -4557,7 +4557,7 @@
         <v>4</v>
       </c>
       <c r="F235" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.15">
@@ -4574,7 +4574,7 @@
         <v>4</v>
       </c>
       <c r="F236" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.15">
@@ -4591,7 +4591,7 @@
         <v>4</v>
       </c>
       <c r="F237" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.15">
@@ -4608,7 +4608,7 @@
         <v>4</v>
       </c>
       <c r="F238" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.15">
@@ -4625,7 +4625,7 @@
         <v>4</v>
       </c>
       <c r="F239" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.15">
@@ -4642,7 +4642,7 @@
         <v>4</v>
       </c>
       <c r="F240" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.15">
@@ -4659,7 +4659,7 @@
         <v>4</v>
       </c>
       <c r="F241" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.15">
@@ -4676,7 +4676,7 @@
         <v>4</v>
       </c>
       <c r="F242" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.15">
@@ -4693,7 +4693,7 @@
         <v>4</v>
       </c>
       <c r="F243" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.15">
@@ -4710,7 +4710,7 @@
         <v>4</v>
       </c>
       <c r="F244" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.15">
@@ -4727,7 +4727,7 @@
         <v>4</v>
       </c>
       <c r="F245" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.15">
@@ -4744,7 +4744,7 @@
         <v>4</v>
       </c>
       <c r="F246" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.15">
@@ -4761,7 +4761,7 @@
         <v>4</v>
       </c>
       <c r="F247" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.15">
@@ -4778,7 +4778,7 @@
         <v>4</v>
       </c>
       <c r="F248" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.15">
@@ -4795,7 +4795,7 @@
         <v>4</v>
       </c>
       <c r="F249" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.15">
@@ -4812,7 +4812,7 @@
         <v>4</v>
       </c>
       <c r="F250" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.15">
@@ -4829,7 +4829,7 @@
         <v>4</v>
       </c>
       <c r="F251" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.15">
@@ -4846,7 +4846,7 @@
         <v>4</v>
       </c>
       <c r="F252" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.15">
@@ -4863,7 +4863,7 @@
         <v>4</v>
       </c>
       <c r="F253" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.15">
@@ -4880,7 +4880,7 @@
         <v>4</v>
       </c>
       <c r="F254" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.15">
@@ -4897,7 +4897,7 @@
         <v>4</v>
       </c>
       <c r="F255" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.15">
@@ -4914,7 +4914,7 @@
         <v>4</v>
       </c>
       <c r="F256" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.15">
@@ -4931,7 +4931,7 @@
         <v>4</v>
       </c>
       <c r="F257" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.15">
@@ -4948,7 +4948,7 @@
         <v>4</v>
       </c>
       <c r="F258" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.15">
@@ -4965,7 +4965,7 @@
         <v>4</v>
       </c>
       <c r="F259" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.15">
@@ -4982,7 +4982,7 @@
         <v>4</v>
       </c>
       <c r="F260" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.15">
@@ -4999,7 +4999,7 @@
         <v>4</v>
       </c>
       <c r="F261" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.15">
@@ -5016,7 +5016,7 @@
         <v>4</v>
       </c>
       <c r="F262" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.15">
@@ -5033,7 +5033,7 @@
         <v>4</v>
       </c>
       <c r="F263" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.15">
@@ -5050,7 +5050,7 @@
         <v>4</v>
       </c>
       <c r="F264" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.15">
@@ -5067,7 +5067,7 @@
         <v>4</v>
       </c>
       <c r="F265" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.15">
@@ -5084,7 +5084,7 @@
         <v>4</v>
       </c>
       <c r="F266" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.15">
@@ -5101,7 +5101,7 @@
         <v>4</v>
       </c>
       <c r="F267" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.15">
@@ -5118,7 +5118,7 @@
         <v>4</v>
       </c>
       <c r="F268" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.15">
@@ -5135,7 +5135,7 @@
         <v>4</v>
       </c>
       <c r="F269" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.15">
@@ -5152,7 +5152,7 @@
         <v>4</v>
       </c>
       <c r="F270" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.15">
@@ -5169,7 +5169,7 @@
         <v>4</v>
       </c>
       <c r="F271" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.15">
@@ -5186,7 +5186,7 @@
         <v>4</v>
       </c>
       <c r="F272" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.15">
@@ -5203,7 +5203,7 @@
         <v>4</v>
       </c>
       <c r="F273" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.15">
@@ -5220,7 +5220,7 @@
         <v>4</v>
       </c>
       <c r="F274" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.15">
@@ -5237,7 +5237,7 @@
         <v>4</v>
       </c>
       <c r="F275" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.15">
@@ -5254,7 +5254,7 @@
         <v>4</v>
       </c>
       <c r="F276" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.15">
@@ -5271,7 +5271,7 @@
         <v>4</v>
       </c>
       <c r="F277" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.15">
@@ -5288,7 +5288,7 @@
         <v>4</v>
       </c>
       <c r="F278" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.15">
@@ -5305,7 +5305,7 @@
         <v>4</v>
       </c>
       <c r="F279" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.15">
@@ -5322,7 +5322,7 @@
         <v>4</v>
       </c>
       <c r="F280" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.15">
@@ -5339,7 +5339,7 @@
         <v>4</v>
       </c>
       <c r="F281" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.15">
@@ -5356,7 +5356,7 @@
         <v>4</v>
       </c>
       <c r="F282" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.15">
@@ -5373,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="F283" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.15">
@@ -5390,7 +5390,7 @@
         <v>4</v>
       </c>
       <c r="F284" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.15">
@@ -5407,7 +5407,7 @@
         <v>4</v>
       </c>
       <c r="F285" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.15">
@@ -5424,7 +5424,7 @@
         <v>4</v>
       </c>
       <c r="F286" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.15">
@@ -5441,7 +5441,7 @@
         <v>4</v>
       </c>
       <c r="F287" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.15">
@@ -5458,7 +5458,7 @@
         <v>4</v>
       </c>
       <c r="F288" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.15">
@@ -5475,7 +5475,7 @@
         <v>4</v>
       </c>
       <c r="F289" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.15">
@@ -5492,7 +5492,7 @@
         <v>4</v>
       </c>
       <c r="F290" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.15">
@@ -5509,7 +5509,7 @@
         <v>4</v>
       </c>
       <c r="F291" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.15">
@@ -5526,7 +5526,7 @@
         <v>4</v>
       </c>
       <c r="F292" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.15">
@@ -5543,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="F293" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.15">
@@ -5560,7 +5560,7 @@
         <v>4</v>
       </c>
       <c r="F294" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.15">
@@ -5577,7 +5577,7 @@
         <v>4</v>
       </c>
       <c r="F295" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.15">
@@ -5594,7 +5594,7 @@
         <v>4</v>
       </c>
       <c r="F296" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.15">
@@ -5611,7 +5611,7 @@
         <v>4</v>
       </c>
       <c r="F297" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.15">
@@ -5628,7 +5628,7 @@
         <v>4</v>
       </c>
       <c r="F298" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.15">
@@ -5645,7 +5645,7 @@
         <v>4</v>
       </c>
       <c r="F299" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.15">
@@ -5662,7 +5662,7 @@
         <v>4</v>
       </c>
       <c r="F300" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.15">
@@ -5679,7 +5679,7 @@
         <v>4</v>
       </c>
       <c r="F301" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.15">
@@ -5696,7 +5696,7 @@
         <v>4</v>
       </c>
       <c r="F302" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.15">
@@ -5713,7 +5713,7 @@
         <v>4</v>
       </c>
       <c r="F303" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.15">
@@ -5730,7 +5730,7 @@
         <v>4</v>
       </c>
       <c r="F304" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.15">
@@ -5747,7 +5747,7 @@
         <v>4</v>
       </c>
       <c r="F305" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.15">
@@ -5764,7 +5764,7 @@
         <v>4</v>
       </c>
       <c r="F306" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.15">
@@ -5781,7 +5781,7 @@
         <v>4</v>
       </c>
       <c r="F307" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.15">
@@ -5798,7 +5798,7 @@
         <v>4</v>
       </c>
       <c r="F308" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.15">
@@ -5815,7 +5815,7 @@
         <v>4</v>
       </c>
       <c r="F309" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.15">
@@ -5832,7 +5832,7 @@
         <v>4</v>
       </c>
       <c r="F310" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.15">
@@ -5849,7 +5849,7 @@
         <v>4</v>
       </c>
       <c r="F311" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.15">
@@ -5866,7 +5866,7 @@
         <v>4</v>
       </c>
       <c r="F312" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.15">
@@ -5883,7 +5883,7 @@
         <v>4</v>
       </c>
       <c r="F313" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.15">
@@ -5900,7 +5900,7 @@
         <v>4</v>
       </c>
       <c r="F314" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.15">
@@ -5917,7 +5917,7 @@
         <v>4</v>
       </c>
       <c r="F315" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.15">
@@ -5934,7 +5934,7 @@
         <v>4</v>
       </c>
       <c r="F316" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.15">
@@ -5951,7 +5951,7 @@
         <v>4</v>
       </c>
       <c r="F317" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.15">
@@ -5968,7 +5968,7 @@
         <v>4</v>
       </c>
       <c r="F318" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.15">
@@ -5985,7 +5985,7 @@
         <v>4</v>
       </c>
       <c r="F319" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.15">
@@ -6002,7 +6002,7 @@
         <v>4</v>
       </c>
       <c r="F320" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.15">
@@ -6019,7 +6019,7 @@
         <v>4</v>
       </c>
       <c r="F321" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.15">
@@ -6036,7 +6036,7 @@
         <v>4</v>
       </c>
       <c r="F322" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.15">
@@ -6053,7 +6053,7 @@
         <v>4</v>
       </c>
       <c r="F323" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.15">
@@ -6070,7 +6070,7 @@
         <v>4</v>
       </c>
       <c r="F324" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.15">
@@ -6087,7 +6087,7 @@
         <v>4</v>
       </c>
       <c r="F325" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.15">
@@ -6104,7 +6104,7 @@
         <v>4</v>
       </c>
       <c r="F326" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.15">
@@ -6121,7 +6121,7 @@
         <v>4</v>
       </c>
       <c r="F327" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.15">
@@ -6138,7 +6138,7 @@
         <v>4</v>
       </c>
       <c r="F328" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.15">
@@ -6155,7 +6155,7 @@
         <v>4</v>
       </c>
       <c r="F329" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.15">
@@ -6172,7 +6172,7 @@
         <v>4</v>
       </c>
       <c r="F330" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.15">
@@ -6189,7 +6189,7 @@
         <v>4</v>
       </c>
       <c r="F331" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.15">
@@ -6206,7 +6206,7 @@
         <v>4</v>
       </c>
       <c r="F332" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.15">
@@ -6223,7 +6223,7 @@
         <v>4</v>
       </c>
       <c r="F333" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.15">
@@ -6240,7 +6240,7 @@
         <v>4</v>
       </c>
       <c r="F334" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.15">
@@ -6257,7 +6257,7 @@
         <v>4</v>
       </c>
       <c r="F335" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.15">
@@ -6274,7 +6274,7 @@
         <v>4</v>
       </c>
       <c r="F336" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.15">
@@ -6291,7 +6291,7 @@
         <v>4</v>
       </c>
       <c r="F337" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.15">
@@ -6308,7 +6308,7 @@
         <v>4</v>
       </c>
       <c r="F338" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.15">
@@ -6325,7 +6325,7 @@
         <v>4</v>
       </c>
       <c r="F339" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.15">
@@ -6342,7 +6342,7 @@
         <v>4</v>
       </c>
       <c r="F340" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.15">
@@ -6359,7 +6359,7 @@
         <v>4</v>
       </c>
       <c r="F341" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.15">
@@ -6376,7 +6376,7 @@
         <v>4</v>
       </c>
       <c r="F342" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.15">
@@ -6393,7 +6393,7 @@
         <v>4</v>
       </c>
       <c r="F343" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.15">
@@ -6410,7 +6410,7 @@
         <v>4</v>
       </c>
       <c r="F344" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.15">
@@ -6427,7 +6427,7 @@
         <v>4</v>
       </c>
       <c r="F345" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.15">
@@ -6444,7 +6444,7 @@
         <v>4</v>
       </c>
       <c r="F346" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.15">
@@ -6461,7 +6461,7 @@
         <v>4</v>
       </c>
       <c r="F347" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.15">
@@ -6478,7 +6478,7 @@
         <v>4</v>
       </c>
       <c r="F348" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.15">
@@ -6495,7 +6495,7 @@
         <v>4</v>
       </c>
       <c r="F349" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.15">
@@ -6512,7 +6512,7 @@
         <v>4</v>
       </c>
       <c r="F350" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.15">
@@ -6529,7 +6529,7 @@
         <v>4</v>
       </c>
       <c r="F351" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.15">
@@ -6546,7 +6546,7 @@
         <v>4</v>
       </c>
       <c r="F352" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.15">
@@ -6563,7 +6563,7 @@
         <v>4</v>
       </c>
       <c r="F353" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.15">
@@ -6580,7 +6580,7 @@
         <v>4</v>
       </c>
       <c r="F354" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.15">
@@ -6597,7 +6597,7 @@
         <v>4</v>
       </c>
       <c r="F355" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.15">
@@ -6614,7 +6614,7 @@
         <v>4</v>
       </c>
       <c r="F356" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.15">
@@ -6631,7 +6631,7 @@
         <v>4</v>
       </c>
       <c r="F357" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.15">
@@ -6648,7 +6648,7 @@
         <v>4</v>
       </c>
       <c r="F358" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.15">
@@ -6665,7 +6665,7 @@
         <v>4</v>
       </c>
       <c r="F359" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.15">
@@ -6682,7 +6682,7 @@
         <v>4</v>
       </c>
       <c r="F360" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.15">
@@ -6699,7 +6699,7 @@
         <v>4</v>
       </c>
       <c r="F361" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.15">
@@ -6716,7 +6716,7 @@
         <v>4</v>
       </c>
       <c r="F362" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.15">
@@ -6733,7 +6733,7 @@
         <v>4</v>
       </c>
       <c r="F363" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.15">
@@ -6750,7 +6750,7 @@
         <v>4</v>
       </c>
       <c r="F364" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.15">
@@ -6767,7 +6767,7 @@
         <v>4</v>
       </c>
       <c r="F365" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.15">
@@ -6784,7 +6784,7 @@
         <v>4</v>
       </c>
       <c r="F366" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.15">
@@ -6801,7 +6801,7 @@
         <v>4</v>
       </c>
       <c r="F367" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.15">
@@ -6818,7 +6818,7 @@
         <v>4</v>
       </c>
       <c r="F368" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.15">
@@ -6835,7 +6835,7 @@
         <v>4</v>
       </c>
       <c r="F369" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.15">
@@ -6852,7 +6852,7 @@
         <v>4</v>
       </c>
       <c r="F370" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.15">
@@ -6869,7 +6869,7 @@
         <v>4</v>
       </c>
       <c r="F371" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.15">
@@ -6886,7 +6886,7 @@
         <v>4</v>
       </c>
       <c r="F372" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.15">
@@ -6903,7 +6903,7 @@
         <v>4</v>
       </c>
       <c r="F373" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.15">
@@ -6920,7 +6920,7 @@
         <v>4</v>
       </c>
       <c r="F374" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.15">
@@ -6937,7 +6937,7 @@
         <v>4</v>
       </c>
       <c r="F375" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.15">
@@ -6954,7 +6954,7 @@
         <v>4</v>
       </c>
       <c r="F376" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.15">
@@ -6971,7 +6971,7 @@
         <v>4</v>
       </c>
       <c r="F377" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.15">
@@ -6988,7 +6988,7 @@
         <v>4</v>
       </c>
       <c r="F378" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.15">
@@ -7005,7 +7005,7 @@
         <v>4</v>
       </c>
       <c r="F379" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.15">
@@ -7022,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="F380" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.15">
@@ -7039,7 +7039,7 @@
         <v>4</v>
       </c>
       <c r="F381" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.15">
@@ -7056,7 +7056,7 @@
         <v>4</v>
       </c>
       <c r="F382" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.15">
@@ -7073,7 +7073,7 @@
         <v>4</v>
       </c>
       <c r="F383" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.15">
@@ -7090,7 +7090,7 @@
         <v>4</v>
       </c>
       <c r="F384" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.15">
@@ -7107,7 +7107,7 @@
         <v>4</v>
       </c>
       <c r="F385" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.15">
@@ -7124,7 +7124,7 @@
         <v>4</v>
       </c>
       <c r="F386" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.15">
@@ -7141,7 +7141,7 @@
         <v>4</v>
       </c>
       <c r="F387" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.15">
@@ -7158,7 +7158,7 @@
         <v>4</v>
       </c>
       <c r="F388" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.15">
@@ -7175,7 +7175,7 @@
         <v>4</v>
       </c>
       <c r="F389" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.15">
@@ -7192,7 +7192,7 @@
         <v>4</v>
       </c>
       <c r="F390" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.15">
@@ -7209,7 +7209,7 @@
         <v>4</v>
       </c>
       <c r="F391" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.15">
@@ -7226,7 +7226,7 @@
         <v>4</v>
       </c>
       <c r="F392" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.15">
@@ -7243,7 +7243,7 @@
         <v>4</v>
       </c>
       <c r="F393" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.15">
@@ -7260,7 +7260,7 @@
         <v>4</v>
       </c>
       <c r="F394" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.15">
@@ -7277,7 +7277,7 @@
         <v>4</v>
       </c>
       <c r="F395" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.15">
@@ -7294,7 +7294,7 @@
         <v>4</v>
       </c>
       <c r="F396" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.15">
@@ -7311,7 +7311,7 @@
         <v>4</v>
       </c>
       <c r="F397" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.15">
@@ -7328,7 +7328,7 @@
         <v>4</v>
       </c>
       <c r="F398" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.15">
@@ -7345,7 +7345,7 @@
         <v>4</v>
       </c>
       <c r="F399" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.15">
@@ -7362,7 +7362,7 @@
         <v>4</v>
       </c>
       <c r="F400" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.15">
@@ -7379,7 +7379,7 @@
         <v>4</v>
       </c>
       <c r="F401" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.15">
@@ -7396,7 +7396,7 @@
         <v>4</v>
       </c>
       <c r="F402" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.15">
@@ -7413,7 +7413,7 @@
         <v>4</v>
       </c>
       <c r="F403" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.15">
@@ -7430,7 +7430,7 @@
         <v>4</v>
       </c>
       <c r="F404" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.15">
@@ -7447,7 +7447,7 @@
         <v>4</v>
       </c>
       <c r="F405" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.15">
@@ -7464,7 +7464,7 @@
         <v>4</v>
       </c>
       <c r="F406" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.15">
@@ -7481,7 +7481,7 @@
         <v>4</v>
       </c>
       <c r="F407" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.15">
@@ -7498,7 +7498,7 @@
         <v>4</v>
       </c>
       <c r="F408" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.15">
@@ -7515,7 +7515,7 @@
         <v>4</v>
       </c>
       <c r="F409" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.15">
@@ -7532,7 +7532,7 @@
         <v>4</v>
       </c>
       <c r="F410" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.15">
@@ -7549,7 +7549,7 @@
         <v>4</v>
       </c>
       <c r="F411" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.15">
@@ -7566,7 +7566,7 @@
         <v>4</v>
       </c>
       <c r="F412" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.15">
@@ -7583,7 +7583,7 @@
         <v>4</v>
       </c>
       <c r="F413" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.15">
@@ -7600,7 +7600,7 @@
         <v>4</v>
       </c>
       <c r="F414" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.15">
@@ -7617,7 +7617,7 @@
         <v>4</v>
       </c>
       <c r="F415" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.15">
@@ -7634,7 +7634,7 @@
         <v>4</v>
       </c>
       <c r="F416" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.15">
@@ -7651,7 +7651,7 @@
         <v>4</v>
       </c>
       <c r="F417" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.15">
@@ -7668,7 +7668,7 @@
         <v>4</v>
       </c>
       <c r="F418" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.15">
@@ -7685,7 +7685,7 @@
         <v>4</v>
       </c>
       <c r="F419" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.15">
@@ -7702,7 +7702,7 @@
         <v>4</v>
       </c>
       <c r="F420" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.15">
@@ -7719,7 +7719,7 @@
         <v>4</v>
       </c>
       <c r="F421" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.15">
@@ -7736,7 +7736,7 @@
         <v>4</v>
       </c>
       <c r="F422" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.15">
@@ -7753,7 +7753,7 @@
         <v>4</v>
       </c>
       <c r="F423" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.15">
@@ -7770,7 +7770,7 @@
         <v>4</v>
       </c>
       <c r="F424" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.15">
@@ -7787,7 +7787,7 @@
         <v>4</v>
       </c>
       <c r="F425" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.15">
@@ -7804,7 +7804,7 @@
         <v>4</v>
       </c>
       <c r="F426" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.15">
@@ -7821,7 +7821,7 @@
         <v>4</v>
       </c>
       <c r="F427" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.15">
@@ -7838,7 +7838,7 @@
         <v>4</v>
       </c>
       <c r="F428" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.15">
@@ -7855,7 +7855,7 @@
         <v>4</v>
       </c>
       <c r="F429" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.15">
@@ -7872,7 +7872,7 @@
         <v>4</v>
       </c>
       <c r="F430" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.15">
@@ -7889,7 +7889,7 @@
         <v>4</v>
       </c>
       <c r="F431" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.15">
@@ -7906,7 +7906,7 @@
         <v>4</v>
       </c>
       <c r="F432" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.15">
@@ -7923,7 +7923,7 @@
         <v>4</v>
       </c>
       <c r="F433" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.15">
@@ -7940,7 +7940,7 @@
         <v>4</v>
       </c>
       <c r="F434" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.15">
@@ -7957,7 +7957,7 @@
         <v>4</v>
       </c>
       <c r="F435" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.15">
@@ -7974,7 +7974,7 @@
         <v>4</v>
       </c>
       <c r="F436" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.15">
@@ -7991,7 +7991,7 @@
         <v>4</v>
       </c>
       <c r="F437" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.15">
@@ -8008,7 +8008,7 @@
         <v>4</v>
       </c>
       <c r="F438" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.15">
@@ -8025,7 +8025,7 @@
         <v>4</v>
       </c>
       <c r="F439" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.15">
@@ -8042,7 +8042,7 @@
         <v>4</v>
       </c>
       <c r="F440" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.15">
@@ -8059,7 +8059,7 @@
         <v>4</v>
       </c>
       <c r="F441" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.15">
@@ -8076,7 +8076,7 @@
         <v>4</v>
       </c>
       <c r="F442" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.15">
@@ -8093,7 +8093,7 @@
         <v>4</v>
       </c>
       <c r="F443" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.15">
@@ -8110,7 +8110,7 @@
         <v>4</v>
       </c>
       <c r="F444" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.15">
@@ -8127,7 +8127,7 @@
         <v>4</v>
       </c>
       <c r="F445" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.15">
@@ -8144,7 +8144,7 @@
         <v>4</v>
       </c>
       <c r="F446" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.15">
@@ -8161,7 +8161,7 @@
         <v>4</v>
       </c>
       <c r="F447" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.15">
@@ -8178,7 +8178,7 @@
         <v>4</v>
       </c>
       <c r="F448" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.15">
@@ -8195,7 +8195,7 @@
         <v>4</v>
       </c>
       <c r="F449" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.15">
@@ -8212,7 +8212,7 @@
         <v>4</v>
       </c>
       <c r="F450" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.15">
@@ -8229,7 +8229,7 @@
         <v>4</v>
       </c>
       <c r="F451" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.15">
@@ -8246,7 +8246,7 @@
         <v>4</v>
       </c>
       <c r="F452" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.15">
@@ -8263,7 +8263,7 @@
         <v>4</v>
       </c>
       <c r="F453" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.15">
@@ -8280,7 +8280,7 @@
         <v>4</v>
       </c>
       <c r="F454" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.15">
@@ -8297,7 +8297,7 @@
         <v>4</v>
       </c>
       <c r="F455" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.15">
@@ -8314,7 +8314,7 @@
         <v>4</v>
       </c>
       <c r="F456" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.15">
@@ -8331,7 +8331,7 @@
         <v>4</v>
       </c>
       <c r="F457" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.15">
@@ -8348,7 +8348,7 @@
         <v>4</v>
       </c>
       <c r="F458" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.15">
@@ -8365,7 +8365,7 @@
         <v>4</v>
       </c>
       <c r="F459" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.15">
@@ -8382,7 +8382,7 @@
         <v>4</v>
       </c>
       <c r="F460" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.15">
@@ -8399,7 +8399,7 @@
         <v>4</v>
       </c>
       <c r="F461" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.15">
@@ -8416,7 +8416,7 @@
         <v>4</v>
       </c>
       <c r="F462" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.15">
@@ -8433,7 +8433,7 @@
         <v>4</v>
       </c>
       <c r="F463" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.15">
@@ -8450,7 +8450,7 @@
         <v>4</v>
       </c>
       <c r="F464" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.15">
@@ -8467,7 +8467,7 @@
         <v>4</v>
       </c>
       <c r="F465" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.15">
@@ -8484,7 +8484,7 @@
         <v>4</v>
       </c>
       <c r="F466" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.15">
@@ -8501,7 +8501,7 @@
         <v>4</v>
       </c>
       <c r="F467" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.15">
@@ -8518,7 +8518,7 @@
         <v>4</v>
       </c>
       <c r="F468" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.15">
@@ -8535,7 +8535,7 @@
         <v>4</v>
       </c>
       <c r="F469" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.15">
@@ -8552,7 +8552,7 @@
         <v>4</v>
       </c>
       <c r="F470" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.15">
@@ -8569,7 +8569,7 @@
         <v>4</v>
       </c>
       <c r="F471" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.15">
@@ -8586,7 +8586,7 @@
         <v>4</v>
       </c>
       <c r="F472" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.15">
@@ -8603,7 +8603,7 @@
         <v>4</v>
       </c>
       <c r="F473" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.15">
@@ -8620,7 +8620,7 @@
         <v>4</v>
       </c>
       <c r="F474" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.15">
@@ -8637,7 +8637,7 @@
         <v>4</v>
       </c>
       <c r="F475" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.15">
@@ -8654,7 +8654,7 @@
         <v>4</v>
       </c>
       <c r="F476" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.15">
@@ -8671,7 +8671,7 @@
         <v>4</v>
       </c>
       <c r="F477" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.15">
@@ -8688,7 +8688,7 @@
         <v>4</v>
       </c>
       <c r="F478" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.15">
@@ -8705,7 +8705,7 @@
         <v>4</v>
       </c>
       <c r="F479" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.15">
@@ -8722,7 +8722,7 @@
         <v>4</v>
       </c>
       <c r="F480" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.15">
@@ -8739,7 +8739,7 @@
         <v>4</v>
       </c>
       <c r="F481" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.15">
@@ -8756,7 +8756,7 @@
         <v>4</v>
       </c>
       <c r="F482" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.15">
@@ -8773,7 +8773,7 @@
         <v>4</v>
       </c>
       <c r="F483" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.15">
@@ -8790,7 +8790,7 @@
         <v>4</v>
       </c>
       <c r="F484" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.15">
@@ -8807,7 +8807,7 @@
         <v>4</v>
       </c>
       <c r="F485" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.15">
@@ -8824,7 +8824,7 @@
         <v>4</v>
       </c>
       <c r="F486" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.15">
@@ -8841,7 +8841,7 @@
         <v>4</v>
       </c>
       <c r="F487" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.15">
@@ -8858,7 +8858,7 @@
         <v>4</v>
       </c>
       <c r="F488" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.15">
@@ -8875,7 +8875,7 @@
         <v>4</v>
       </c>
       <c r="F489" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.15">
@@ -8892,7 +8892,7 @@
         <v>4</v>
       </c>
       <c r="F490" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.15">
@@ -8909,7 +8909,7 @@
         <v>4</v>
       </c>
       <c r="F491" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.15">
@@ -8926,7 +8926,7 @@
         <v>4</v>
       </c>
       <c r="F492" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.15">
@@ -8943,7 +8943,7 @@
         <v>4</v>
       </c>
       <c r="F493" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.15">
@@ -8960,7 +8960,7 @@
         <v>4</v>
       </c>
       <c r="F494" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.15">
@@ -8977,7 +8977,7 @@
         <v>4</v>
       </c>
       <c r="F495" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.15">
@@ -8994,7 +8994,7 @@
         <v>4</v>
       </c>
       <c r="F496" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.15">
@@ -9011,7 +9011,7 @@
         <v>4</v>
       </c>
       <c r="F497" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.15">
@@ -9028,7 +9028,7 @@
         <v>4</v>
       </c>
       <c r="F498" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.15">
@@ -9045,7 +9045,7 @@
         <v>4</v>
       </c>
       <c r="F499" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.15">
@@ -9062,7 +9062,7 @@
         <v>4</v>
       </c>
       <c r="F500" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.15">
@@ -9079,7 +9079,7 @@
         <v>4</v>
       </c>
       <c r="F501" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.15">
@@ -9096,7 +9096,7 @@
         <v>4</v>
       </c>
       <c r="F502" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.15">
@@ -9113,7 +9113,7 @@
         <v>4</v>
       </c>
       <c r="F503" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.15">
@@ -9130,7 +9130,7 @@
         <v>4</v>
       </c>
       <c r="F504" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.15">
@@ -9147,7 +9147,7 @@
         <v>4</v>
       </c>
       <c r="F505" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.15">
@@ -9164,7 +9164,7 @@
         <v>4</v>
       </c>
       <c r="F506" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.15">
@@ -9181,7 +9181,7 @@
         <v>4</v>
       </c>
       <c r="F507" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.15">
@@ -9198,7 +9198,7 @@
         <v>4</v>
       </c>
       <c r="F508" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.15">
@@ -9215,7 +9215,7 @@
         <v>4</v>
       </c>
       <c r="F509" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.15">
@@ -9232,7 +9232,7 @@
         <v>4</v>
       </c>
       <c r="F510" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.15">
@@ -9249,7 +9249,7 @@
         <v>4</v>
       </c>
       <c r="F511" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.15">
@@ -9266,7 +9266,7 @@
         <v>4</v>
       </c>
       <c r="F512" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.15">
@@ -9283,7 +9283,7 @@
         <v>4</v>
       </c>
       <c r="F513" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.15">
@@ -9300,7 +9300,7 @@
         <v>4</v>
       </c>
       <c r="F514" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.15">
@@ -9317,7 +9317,7 @@
         <v>4</v>
       </c>
       <c r="F515" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.15">
@@ -9334,7 +9334,7 @@
         <v>4</v>
       </c>
       <c r="F516" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.15">
@@ -9351,7 +9351,7 @@
         <v>4</v>
       </c>
       <c r="F517" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.15">
@@ -9368,7 +9368,7 @@
         <v>4</v>
       </c>
       <c r="F518" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.15">
@@ -9385,7 +9385,7 @@
         <v>4</v>
       </c>
       <c r="F519" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.15">
@@ -9402,7 +9402,7 @@
         <v>4</v>
       </c>
       <c r="F520" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.15">
@@ -9419,7 +9419,7 @@
         <v>4</v>
       </c>
       <c r="F521" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.15">
@@ -9436,7 +9436,7 @@
         <v>4</v>
       </c>
       <c r="F522" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.15">
@@ -9453,7 +9453,7 @@
         <v>4</v>
       </c>
       <c r="F523" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.15">
@@ -9470,7 +9470,7 @@
         <v>4</v>
       </c>
       <c r="F524" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.15">
@@ -9487,7 +9487,7 @@
         <v>4</v>
       </c>
       <c r="F525" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.15">
@@ -9504,7 +9504,7 @@
         <v>4</v>
       </c>
       <c r="F526" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.15">
@@ -9521,7 +9521,7 @@
         <v>4</v>
       </c>
       <c r="F527" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.15">
@@ -9538,7 +9538,7 @@
         <v>4</v>
       </c>
       <c r="F528" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.15">
@@ -9555,7 +9555,7 @@
         <v>4</v>
       </c>
       <c r="F529" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.15">
@@ -9572,7 +9572,7 @@
         <v>4</v>
       </c>
       <c r="F530" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.15">
@@ -9589,7 +9589,7 @@
         <v>4</v>
       </c>
       <c r="F531" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.15">
@@ -9606,7 +9606,7 @@
         <v>4</v>
       </c>
       <c r="F532" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.15">
@@ -9623,7 +9623,7 @@
         <v>4</v>
       </c>
       <c r="F533" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.15">
@@ -9640,7 +9640,7 @@
         <v>4</v>
       </c>
       <c r="F534" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.15">
@@ -9657,7 +9657,7 @@
         <v>4</v>
       </c>
       <c r="F535" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.15">
@@ -9674,7 +9674,7 @@
         <v>4</v>
       </c>
       <c r="F536" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.15">
@@ -9691,7 +9691,7 @@
         <v>4</v>
       </c>
       <c r="F537" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.15">
@@ -9708,7 +9708,7 @@
         <v>4</v>
       </c>
       <c r="F538" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.15">
@@ -9725,7 +9725,7 @@
         <v>4</v>
       </c>
       <c r="F539" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.15">
@@ -9742,7 +9742,7 @@
         <v>4</v>
       </c>
       <c r="F540" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.15">
@@ -9759,7 +9759,7 @@
         <v>4</v>
       </c>
       <c r="F541" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.15">
@@ -9776,7 +9776,7 @@
         <v>4</v>
       </c>
       <c r="F542" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.15">
@@ -9793,7 +9793,7 @@
         <v>4</v>
       </c>
       <c r="F543" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.15">
@@ -9810,7 +9810,7 @@
         <v>4</v>
       </c>
       <c r="F544" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.15">
@@ -9827,7 +9827,7 @@
         <v>4</v>
       </c>
       <c r="F545" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.15">
@@ -9844,7 +9844,7 @@
         <v>4</v>
       </c>
       <c r="F546" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.15">
@@ -9861,7 +9861,7 @@
         <v>4</v>
       </c>
       <c r="F547" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.15">
@@ -9878,7 +9878,7 @@
         <v>4</v>
       </c>
       <c r="F548" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.15">
@@ -9895,7 +9895,7 @@
         <v>4</v>
       </c>
       <c r="F549" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.15">
@@ -9912,7 +9912,7 @@
         <v>4</v>
       </c>
       <c r="F550" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.15">
@@ -9929,7 +9929,7 @@
         <v>4</v>
       </c>
       <c r="F551" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.15">
@@ -9946,7 +9946,7 @@
         <v>4</v>
       </c>
       <c r="F552" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.15">
@@ -9963,7 +9963,7 @@
         <v>4</v>
       </c>
       <c r="F553" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.15">
@@ -9980,7 +9980,7 @@
         <v>4</v>
       </c>
       <c r="F554" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.15">
@@ -9997,7 +9997,7 @@
         <v>4</v>
       </c>
       <c r="F555" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.15">
@@ -10014,7 +10014,7 @@
         <v>4</v>
       </c>
       <c r="F556" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.15">
@@ -10031,7 +10031,7 @@
         <v>4</v>
       </c>
       <c r="F557" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.15">
@@ -10048,7 +10048,7 @@
         <v>4</v>
       </c>
       <c r="F558" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.15">
@@ -10065,7 +10065,7 @@
         <v>4</v>
       </c>
       <c r="F559" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.15">
@@ -10082,7 +10082,7 @@
         <v>4</v>
       </c>
       <c r="F560" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.15">
@@ -10099,7 +10099,7 @@
         <v>4</v>
       </c>
       <c r="F561" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.15">
@@ -10116,7 +10116,7 @@
         <v>4</v>
       </c>
       <c r="F562" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.15">
@@ -10133,7 +10133,7 @@
         <v>4</v>
       </c>
       <c r="F563" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.15">
@@ -10150,7 +10150,7 @@
         <v>4</v>
       </c>
       <c r="F564" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.15">
@@ -10167,7 +10167,7 @@
         <v>4</v>
       </c>
       <c r="F565" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.15">
@@ -10184,7 +10184,7 @@
         <v>4</v>
       </c>
       <c r="F566" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.15">
@@ -10201,7 +10201,7 @@
         <v>4</v>
       </c>
       <c r="F567" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.15">
@@ -10218,7 +10218,7 @@
         <v>4</v>
       </c>
       <c r="F568" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.15">
@@ -10235,7 +10235,7 @@
         <v>4</v>
       </c>
       <c r="F569" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.15">
@@ -10252,7 +10252,7 @@
         <v>4</v>
       </c>
       <c r="F570" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.15">
@@ -10269,7 +10269,7 @@
         <v>4</v>
       </c>
       <c r="F571" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.15">
@@ -10286,7 +10286,7 @@
         <v>4</v>
       </c>
       <c r="F572" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.15">
@@ -10303,7 +10303,7 @@
         <v>4</v>
       </c>
       <c r="F573" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.15">
@@ -10320,7 +10320,7 @@
         <v>4</v>
       </c>
       <c r="F574" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.15">
@@ -10337,7 +10337,7 @@
         <v>4</v>
       </c>
       <c r="F575" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.15">
@@ -10354,7 +10354,7 @@
         <v>4</v>
       </c>
       <c r="F576" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.15">
@@ -10371,7 +10371,7 @@
         <v>4</v>
       </c>
       <c r="F577" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.15">
@@ -10388,7 +10388,7 @@
         <v>4</v>
       </c>
       <c r="F578" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.15">
@@ -10405,7 +10405,7 @@
         <v>4</v>
       </c>
       <c r="F579" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.15">
@@ -10422,7 +10422,7 @@
         <v>4</v>
       </c>
       <c r="F580" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.15">
@@ -10439,7 +10439,7 @@
         <v>4</v>
       </c>
       <c r="F581" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.15">
@@ -10456,7 +10456,7 @@
         <v>4</v>
       </c>
       <c r="F582" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.15">
@@ -10473,7 +10473,7 @@
         <v>4</v>
       </c>
       <c r="F583" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.15">
@@ -10490,7 +10490,7 @@
         <v>4</v>
       </c>
       <c r="F584" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.15">
@@ -10507,7 +10507,7 @@
         <v>4</v>
       </c>
       <c r="F585" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.15">
@@ -10524,7 +10524,7 @@
         <v>4</v>
       </c>
       <c r="F586" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.15">
@@ -10541,7 +10541,7 @@
         <v>4</v>
       </c>
       <c r="F587" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.15">
@@ -10558,7 +10558,7 @@
         <v>4</v>
       </c>
       <c r="F588" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.15">
@@ -10575,7 +10575,7 @@
         <v>4</v>
       </c>
       <c r="F589" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.15">
@@ -10592,7 +10592,7 @@
         <v>4</v>
       </c>
       <c r="F590" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.15">
@@ -10609,7 +10609,7 @@
         <v>4</v>
       </c>
       <c r="F591" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.15">
@@ -10626,7 +10626,7 @@
         <v>4</v>
       </c>
       <c r="F592" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.15">
@@ -10643,7 +10643,7 @@
         <v>4</v>
       </c>
       <c r="F593" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.15">
@@ -10660,7 +10660,7 @@
         <v>4</v>
       </c>
       <c r="F594" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.15">
@@ -10677,7 +10677,7 @@
         <v>4</v>
       </c>
       <c r="F595" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.15">
@@ -10694,7 +10694,7 @@
         <v>4</v>
       </c>
       <c r="F596" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.15">
@@ -10711,7 +10711,7 @@
         <v>4</v>
       </c>
       <c r="F597" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.15">
@@ -10728,7 +10728,7 @@
         <v>4</v>
       </c>
       <c r="F598" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.15">
@@ -10745,7 +10745,7 @@
         <v>4</v>
       </c>
       <c r="F599" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.15">
@@ -10762,7 +10762,7 @@
         <v>4</v>
       </c>
       <c r="F600" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.15">
@@ -10779,7 +10779,7 @@
         <v>4</v>
       </c>
       <c r="F601" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.15">
@@ -10796,7 +10796,7 @@
         <v>4</v>
       </c>
       <c r="F602" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.15">
@@ -10813,7 +10813,7 @@
         <v>4</v>
       </c>
       <c r="F603" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.15">
@@ -10830,7 +10830,7 @@
         <v>4</v>
       </c>
       <c r="F604" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.15">
@@ -10847,7 +10847,7 @@
         <v>4</v>
       </c>
       <c r="F605" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.15">
@@ -10864,7 +10864,7 @@
         <v>4</v>
       </c>
       <c r="F606" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.15">
@@ -10881,7 +10881,7 @@
         <v>4</v>
       </c>
       <c r="F607" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.15">
@@ -10898,7 +10898,7 @@
         <v>4</v>
       </c>
       <c r="F608" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.15">
@@ -10915,7 +10915,7 @@
         <v>4</v>
       </c>
       <c r="F609" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.15">
@@ -10932,7 +10932,7 @@
         <v>4</v>
       </c>
       <c r="F610" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.15">
@@ -10949,7 +10949,7 @@
         <v>4</v>
       </c>
       <c r="F611" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.15">
@@ -10966,7 +10966,7 @@
         <v>4</v>
       </c>
       <c r="F612" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.15">
@@ -10983,7 +10983,7 @@
         <v>4</v>
       </c>
       <c r="F613" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.15">
@@ -11000,7 +11000,7 @@
         <v>4</v>
       </c>
       <c r="F614" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.15">
@@ -11017,7 +11017,7 @@
         <v>4</v>
       </c>
       <c r="F615" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.15">
@@ -11034,7 +11034,7 @@
         <v>4</v>
       </c>
       <c r="F616" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.15">
@@ -11051,7 +11051,7 @@
         <v>4</v>
       </c>
       <c r="F617" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.15">
@@ -11068,7 +11068,7 @@
         <v>4</v>
       </c>
       <c r="F618" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.15">
@@ -11085,7 +11085,7 @@
         <v>4</v>
       </c>
       <c r="F619" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.15">
@@ -11102,7 +11102,7 @@
         <v>4</v>
       </c>
       <c r="F620" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.15">
@@ -11119,7 +11119,7 @@
         <v>4</v>
       </c>
       <c r="F621" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.15">
@@ -11136,7 +11136,7 @@
         <v>4</v>
       </c>
       <c r="F622" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.15">
@@ -11153,7 +11153,7 @@
         <v>4</v>
       </c>
       <c r="F623" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.15">
@@ -11170,7 +11170,7 @@
         <v>4</v>
       </c>
       <c r="F624" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.15">
@@ -11187,7 +11187,7 @@
         <v>4</v>
       </c>
       <c r="F625" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.15">
@@ -11204,7 +11204,7 @@
         <v>4</v>
       </c>
       <c r="F626" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.15">
@@ -11221,7 +11221,7 @@
         <v>4</v>
       </c>
       <c r="F627" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.15">
@@ -11238,7 +11238,7 @@
         <v>4</v>
       </c>
       <c r="F628" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.15">
@@ -11255,7 +11255,7 @@
         <v>4</v>
       </c>
       <c r="F629" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.15">
@@ -11272,7 +11272,7 @@
         <v>4</v>
       </c>
       <c r="F630" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.15">
@@ -11289,7 +11289,7 @@
         <v>4</v>
       </c>
       <c r="F631" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.15">
@@ -11306,7 +11306,7 @@
         <v>4</v>
       </c>
       <c r="F632" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.15">
@@ -11323,7 +11323,7 @@
         <v>4</v>
       </c>
       <c r="F633" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.15">
@@ -11340,7 +11340,7 @@
         <v>4</v>
       </c>
       <c r="F634" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.15">
@@ -11357,7 +11357,7 @@
         <v>4</v>
       </c>
       <c r="F635" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.15">
@@ -11374,7 +11374,7 @@
         <v>4</v>
       </c>
       <c r="F636" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.15">
@@ -11391,7 +11391,7 @@
         <v>4</v>
       </c>
       <c r="F637" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.15">
@@ -11408,7 +11408,7 @@
         <v>4</v>
       </c>
       <c r="F638" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.15">
@@ -11425,7 +11425,7 @@
         <v>4</v>
       </c>
       <c r="F639" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.15">
@@ -11442,7 +11442,7 @@
         <v>4</v>
       </c>
       <c r="F640" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.15">
@@ -11459,7 +11459,7 @@
         <v>4</v>
       </c>
       <c r="F641" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.15">
@@ -11476,7 +11476,7 @@
         <v>4</v>
       </c>
       <c r="F642" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.15">
@@ -11493,7 +11493,7 @@
         <v>4</v>
       </c>
       <c r="F643" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.15">
@@ -11510,7 +11510,7 @@
         <v>4</v>
       </c>
       <c r="F644" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.15">
@@ -11527,7 +11527,7 @@
         <v>4</v>
       </c>
       <c r="F645" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.15">
@@ -11544,7 +11544,7 @@
         <v>4</v>
       </c>
       <c r="F646" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.15">
@@ -11561,7 +11561,7 @@
         <v>4</v>
       </c>
       <c r="F647" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.15">
@@ -11578,7 +11578,7 @@
         <v>4</v>
       </c>
       <c r="F648" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.15">
@@ -11595,7 +11595,7 @@
         <v>4</v>
       </c>
       <c r="F649" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.15">
@@ -11612,7 +11612,7 @@
         <v>4</v>
       </c>
       <c r="F650" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.15">
@@ -11629,7 +11629,7 @@
         <v>4</v>
       </c>
       <c r="F651" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.15">
@@ -11646,7 +11646,7 @@
         <v>4</v>
       </c>
       <c r="F652" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.15">
@@ -11663,7 +11663,7 @@
         <v>4</v>
       </c>
       <c r="F653" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.15">
@@ -11680,7 +11680,7 @@
         <v>4</v>
       </c>
       <c r="F654" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.15">
@@ -11697,7 +11697,7 @@
         <v>4</v>
       </c>
       <c r="F655" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.15">
@@ -11714,7 +11714,7 @@
         <v>4</v>
       </c>
       <c r="F656" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.15">
@@ -11731,7 +11731,7 @@
         <v>4</v>
       </c>
       <c r="F657" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.15">
@@ -11748,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="F658" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.15">
@@ -11765,7 +11765,7 @@
         <v>4</v>
       </c>
       <c r="F659" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.15">
@@ -11782,7 +11782,7 @@
         <v>4</v>
       </c>
       <c r="F660" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.15">
@@ -11799,7 +11799,7 @@
         <v>4</v>
       </c>
       <c r="F661" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.15">
@@ -11816,7 +11816,7 @@
         <v>4</v>
       </c>
       <c r="F662" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.15">
@@ -11833,7 +11833,7 @@
         <v>4</v>
       </c>
       <c r="F663" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.15">
@@ -11850,7 +11850,7 @@
         <v>4</v>
       </c>
       <c r="F664" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.15">
@@ -11867,7 +11867,7 @@
         <v>4</v>
       </c>
       <c r="F665" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.15">
@@ -11884,7 +11884,7 @@
         <v>4</v>
       </c>
       <c r="F666" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.15">
@@ -11901,7 +11901,7 @@
         <v>4</v>
       </c>
       <c r="F667" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.15">
@@ -11918,7 +11918,7 @@
         <v>4</v>
       </c>
       <c r="F668" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.15">
@@ -11935,7 +11935,7 @@
         <v>4</v>
       </c>
       <c r="F669" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.15">
@@ -11952,7 +11952,7 @@
         <v>4</v>
       </c>
       <c r="F670" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.15">
@@ -11969,7 +11969,7 @@
         <v>4</v>
       </c>
       <c r="F671" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.15">
@@ -11986,7 +11986,7 @@
         <v>4</v>
       </c>
       <c r="F672" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.15">
@@ -12003,7 +12003,7 @@
         <v>4</v>
       </c>
       <c r="F673" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.15">
@@ -12020,7 +12020,7 @@
         <v>4</v>
       </c>
       <c r="F674" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.15">
@@ -12037,7 +12037,7 @@
         <v>4</v>
       </c>
       <c r="F675" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.15">
@@ -12054,7 +12054,7 @@
         <v>4</v>
       </c>
       <c r="F676" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.15">
@@ -12071,7 +12071,7 @@
         <v>4</v>
       </c>
       <c r="F677" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.15">
@@ -12088,7 +12088,7 @@
         <v>4</v>
       </c>
       <c r="F678" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.15">
@@ -12105,7 +12105,7 @@
         <v>4</v>
       </c>
       <c r="F679" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.15">
@@ -12122,7 +12122,7 @@
         <v>4</v>
       </c>
       <c r="F680" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.15">
@@ -12139,7 +12139,7 @@
         <v>4</v>
       </c>
       <c r="F681" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.15">
@@ -12156,7 +12156,7 @@
         <v>4</v>
       </c>
       <c r="F682" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.15">
@@ -12173,7 +12173,7 @@
         <v>4</v>
       </c>
       <c r="F683" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.15">
@@ -12190,7 +12190,7 @@
         <v>4</v>
       </c>
       <c r="F684" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.15">
@@ -12207,7 +12207,7 @@
         <v>4</v>
       </c>
       <c r="F685" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.15">
@@ -12224,7 +12224,7 @@
         <v>4</v>
       </c>
       <c r="F686" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.15">
@@ -12241,7 +12241,7 @@
         <v>4</v>
       </c>
       <c r="F687" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.15">
@@ -12258,7 +12258,7 @@
         <v>4</v>
       </c>
       <c r="F688" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.15">
@@ -12275,7 +12275,7 @@
         <v>4</v>
       </c>
       <c r="F689" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.15">
@@ -12292,7 +12292,7 @@
         <v>4</v>
       </c>
       <c r="F690" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.15">
@@ -12309,7 +12309,7 @@
         <v>4</v>
       </c>
       <c r="F691" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.15">
@@ -12326,7 +12326,7 @@
         <v>4</v>
       </c>
       <c r="F692" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.15">
@@ -12343,7 +12343,7 @@
         <v>4</v>
       </c>
       <c r="F693" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.15">
@@ -12360,7 +12360,7 @@
         <v>4</v>
       </c>
       <c r="F694" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.15">
@@ -12377,7 +12377,7 @@
         <v>4</v>
       </c>
       <c r="F695" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.15">
@@ -12394,7 +12394,7 @@
         <v>4</v>
       </c>
       <c r="F696" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.15">
@@ -12411,7 +12411,7 @@
         <v>4</v>
       </c>
       <c r="F697" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.15">
@@ -12428,7 +12428,7 @@
         <v>4</v>
       </c>
       <c r="F698" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.15">
@@ -12445,7 +12445,7 @@
         <v>4</v>
       </c>
       <c r="F699" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.15">
@@ -12462,7 +12462,7 @@
         <v>4</v>
       </c>
       <c r="F700" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.15">
@@ -12479,7 +12479,7 @@
         <v>4</v>
       </c>
       <c r="F701" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.15">
@@ -12496,7 +12496,7 @@
         <v>4</v>
       </c>
       <c r="F702" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.15">
@@ -12513,7 +12513,7 @@
         <v>4</v>
       </c>
       <c r="F703" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.15">
@@ -12530,7 +12530,7 @@
         <v>4</v>
       </c>
       <c r="F704" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.15">
@@ -12547,7 +12547,7 @@
         <v>4</v>
       </c>
       <c r="F705" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.15">
@@ -12564,7 +12564,7 @@
         <v>4</v>
       </c>
       <c r="F706" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.15">
@@ -12581,7 +12581,7 @@
         <v>4</v>
       </c>
       <c r="F707" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.15">
@@ -12598,7 +12598,7 @@
         <v>4</v>
       </c>
       <c r="F708" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.15">
@@ -12615,7 +12615,7 @@
         <v>4</v>
       </c>
       <c r="F709" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.15">
@@ -12632,7 +12632,7 @@
         <v>4</v>
       </c>
       <c r="F710" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.15">
@@ -12649,7 +12649,7 @@
         <v>4</v>
       </c>
       <c r="F711" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.15">
@@ -12666,7 +12666,7 @@
         <v>4</v>
       </c>
       <c r="F712" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.15">
@@ -12683,7 +12683,7 @@
         <v>4</v>
       </c>
       <c r="F713" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.15">
@@ -12700,7 +12700,7 @@
         <v>4</v>
       </c>
       <c r="F714" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.15">
@@ -12717,7 +12717,7 @@
         <v>4</v>
       </c>
       <c r="F715" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.15">
@@ -12734,7 +12734,7 @@
         <v>4</v>
       </c>
       <c r="F716" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.15">
@@ -12751,7 +12751,7 @@
         <v>4</v>
       </c>
       <c r="F717" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.15">
@@ -12768,7 +12768,7 @@
         <v>4</v>
       </c>
       <c r="F718" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.15">
@@ -12785,7 +12785,7 @@
         <v>4</v>
       </c>
       <c r="F719" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.15">
@@ -12802,7 +12802,7 @@
         <v>4</v>
       </c>
       <c r="F720" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.15">
@@ -12819,7 +12819,7 @@
         <v>4</v>
       </c>
       <c r="F721" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.15">
@@ -12836,7 +12836,7 @@
         <v>4</v>
       </c>
       <c r="F722" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.15">
@@ -12853,7 +12853,7 @@
         <v>4</v>
       </c>
       <c r="F723" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.15">
@@ -12870,7 +12870,7 @@
         <v>4</v>
       </c>
       <c r="F724" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.15">
@@ -12887,7 +12887,7 @@
         <v>4</v>
       </c>
       <c r="F725" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.15">
@@ -12904,7 +12904,7 @@
         <v>4</v>
       </c>
       <c r="F726" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.15">
@@ -12921,7 +12921,7 @@
         <v>4</v>
       </c>
       <c r="F727" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.15">
@@ -12938,7 +12938,7 @@
         <v>4</v>
       </c>
       <c r="F728" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.15">
@@ -12955,7 +12955,7 @@
         <v>4</v>
       </c>
       <c r="F729" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.15">
@@ -12972,7 +12972,7 @@
         <v>4</v>
       </c>
       <c r="F730" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.15">
@@ -12989,7 +12989,7 @@
         <v>4</v>
       </c>
       <c r="F731" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.15">
@@ -13006,7 +13006,7 @@
         <v>4</v>
       </c>
       <c r="F732" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.15">
@@ -13023,7 +13023,7 @@
         <v>4</v>
       </c>
       <c r="F733" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.15">
@@ -13040,7 +13040,7 @@
         <v>4</v>
       </c>
       <c r="F734" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.15">
@@ -13057,7 +13057,7 @@
         <v>4</v>
       </c>
       <c r="F735" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.15">
@@ -13074,7 +13074,7 @@
         <v>4</v>
       </c>
       <c r="F736" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.15">
@@ -13091,7 +13091,7 @@
         <v>4</v>
       </c>
       <c r="F737" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.15">
@@ -13108,7 +13108,7 @@
         <v>4</v>
       </c>
       <c r="F738" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.15">
@@ -13125,7 +13125,7 @@
         <v>4</v>
       </c>
       <c r="F739" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.15">
@@ -13142,7 +13142,7 @@
         <v>4</v>
       </c>
       <c r="F740" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.15">
@@ -13159,7 +13159,7 @@
         <v>4</v>
       </c>
       <c r="F741" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.15">
@@ -13176,7 +13176,7 @@
         <v>4</v>
       </c>
       <c r="F742" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.15">
@@ -13193,7 +13193,7 @@
         <v>4</v>
       </c>
       <c r="F743" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.15">
@@ -13210,7 +13210,7 @@
         <v>4</v>
       </c>
       <c r="F744" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.15">
@@ -13227,7 +13227,7 @@
         <v>4</v>
       </c>
       <c r="F745" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.15">
@@ -13244,7 +13244,7 @@
         <v>4</v>
       </c>
       <c r="F746" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.15">
@@ -13261,7 +13261,7 @@
         <v>4</v>
       </c>
       <c r="F747" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.15">
@@ -13278,7 +13278,7 @@
         <v>4</v>
       </c>
       <c r="F748" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.15">
@@ -13295,7 +13295,7 @@
         <v>4</v>
       </c>
       <c r="F749" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.15">
@@ -13312,7 +13312,7 @@
         <v>4</v>
       </c>
       <c r="F750" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.15">
@@ -13329,7 +13329,7 @@
         <v>4</v>
       </c>
       <c r="F751" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.15">
@@ -13346,7 +13346,7 @@
         <v>4</v>
       </c>
       <c r="F752" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.15">
@@ -13363,7 +13363,7 @@
         <v>4</v>
       </c>
       <c r="F753" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.15">
@@ -13380,7 +13380,7 @@
         <v>4</v>
       </c>
       <c r="F754" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.15">
@@ -13397,7 +13397,7 @@
         <v>4</v>
       </c>
       <c r="F755" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.15">
@@ -13414,7 +13414,7 @@
         <v>4</v>
       </c>
       <c r="F756" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.15">
@@ -13431,7 +13431,7 @@
         <v>4</v>
       </c>
       <c r="F757" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.15">
@@ -13448,7 +13448,7 @@
         <v>4</v>
       </c>
       <c r="F758" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.15">
@@ -13465,7 +13465,7 @@
         <v>4</v>
       </c>
       <c r="F759" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.15">
@@ -13482,7 +13482,7 @@
         <v>4</v>
       </c>
       <c r="F760" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.15">
@@ -13499,7 +13499,7 @@
         <v>4</v>
       </c>
       <c r="F761" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.15">
@@ -13516,7 +13516,7 @@
         <v>4</v>
       </c>
       <c r="F762" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.15">
@@ -13533,7 +13533,7 @@
         <v>4</v>
       </c>
       <c r="F763" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.15">
@@ -13550,7 +13550,7 @@
         <v>4</v>
       </c>
       <c r="F764" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.15">
@@ -13567,7 +13567,7 @@
         <v>4</v>
       </c>
       <c r="F765" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.15">
@@ -13584,7 +13584,7 @@
         <v>4</v>
       </c>
       <c r="F766" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.15">
@@ -13601,7 +13601,7 @@
         <v>4</v>
       </c>
       <c r="F767" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.15">
@@ -13618,7 +13618,7 @@
         <v>4</v>
       </c>
       <c r="F768" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.15">
@@ -13635,7 +13635,7 @@
         <v>4</v>
       </c>
       <c r="F769" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.15">
@@ -13652,7 +13652,7 @@
         <v>4</v>
       </c>
       <c r="F770" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.15">
@@ -13669,7 +13669,7 @@
         <v>4</v>
       </c>
       <c r="F771" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.15">
@@ -13686,7 +13686,7 @@
         <v>4</v>
       </c>
       <c r="F772" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.15">
@@ -13703,7 +13703,7 @@
         <v>4</v>
       </c>
       <c r="F773" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.15">
@@ -13720,7 +13720,7 @@
         <v>4</v>
       </c>
       <c r="F774" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.15">
@@ -13737,7 +13737,7 @@
         <v>4</v>
       </c>
       <c r="F775" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.15">
@@ -13754,7 +13754,7 @@
         <v>4</v>
       </c>
       <c r="F776" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.15">
@@ -13771,7 +13771,7 @@
         <v>4</v>
       </c>
       <c r="F777" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.15">
@@ -13788,7 +13788,7 @@
         <v>4</v>
       </c>
       <c r="F778" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.15">
@@ -13805,7 +13805,7 @@
         <v>4</v>
       </c>
       <c r="F779" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.15">
@@ -13822,7 +13822,7 @@
         <v>4</v>
       </c>
       <c r="F780" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.15">
@@ -13839,7 +13839,7 @@
         <v>4</v>
       </c>
       <c r="F781" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.15">
@@ -13856,7 +13856,7 @@
         <v>4</v>
       </c>
       <c r="F782" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.15">
@@ -13873,7 +13873,7 @@
         <v>4</v>
       </c>
       <c r="F783" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.15">
@@ -13890,7 +13890,7 @@
         <v>4</v>
       </c>
       <c r="F784" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.15">
@@ -13907,7 +13907,7 @@
         <v>4</v>
       </c>
       <c r="F785" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.15">
@@ -13924,7 +13924,7 @@
         <v>4</v>
       </c>
       <c r="F786" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.15">
@@ -13941,7 +13941,7 @@
         <v>4</v>
       </c>
       <c r="F787" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.15">
@@ -13958,7 +13958,7 @@
         <v>4</v>
       </c>
       <c r="F788" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.15">
@@ -13975,7 +13975,7 @@
         <v>4</v>
       </c>
       <c r="F789" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.15">
@@ -13992,7 +13992,7 @@
         <v>4</v>
       </c>
       <c r="F790" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.15">
@@ -14009,7 +14009,7 @@
         <v>4</v>
       </c>
       <c r="F791" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.15">
@@ -14026,7 +14026,7 @@
         <v>4</v>
       </c>
       <c r="F792" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.15">
@@ -14043,7 +14043,7 @@
         <v>4</v>
       </c>
       <c r="F793" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.15">
@@ -14060,7 +14060,7 @@
         <v>4</v>
       </c>
       <c r="F794" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.15">
@@ -14077,7 +14077,7 @@
         <v>4</v>
       </c>
       <c r="F795" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.15">
@@ -14094,7 +14094,7 @@
         <v>4</v>
       </c>
       <c r="F796" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.15">
@@ -14111,7 +14111,7 @@
         <v>4</v>
       </c>
       <c r="F797" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.15">
@@ -14128,7 +14128,7 @@
         <v>4</v>
       </c>
       <c r="F798" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.15">
@@ -14145,7 +14145,7 @@
         <v>4</v>
       </c>
       <c r="F799" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.15">
@@ -14162,7 +14162,7 @@
         <v>4</v>
       </c>
       <c r="F800" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.15">
@@ -14179,7 +14179,7 @@
         <v>4</v>
       </c>
       <c r="F801" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.15">
@@ -14196,7 +14196,7 @@
         <v>4</v>
       </c>
       <c r="F802" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.15">
@@ -14213,7 +14213,7 @@
         <v>4</v>
       </c>
       <c r="F803" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.15">
@@ -14230,7 +14230,7 @@
         <v>4</v>
       </c>
       <c r="F804" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.15">
@@ -14247,7 +14247,7 @@
         <v>4</v>
       </c>
       <c r="F805" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.15">
@@ -14264,7 +14264,7 @@
         <v>4</v>
       </c>
       <c r="F806" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.15">
@@ -14281,7 +14281,7 @@
         <v>4</v>
       </c>
       <c r="F807" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.15">
@@ -14298,7 +14298,7 @@
         <v>4</v>
       </c>
       <c r="F808" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.15">
@@ -14315,7 +14315,7 @@
         <v>4</v>
       </c>
       <c r="F809" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.15">
@@ -14332,7 +14332,7 @@
         <v>4</v>
       </c>
       <c r="F810" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.15">
@@ -14349,7 +14349,7 @@
         <v>4</v>
       </c>
       <c r="F811" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.15">
@@ -14366,7 +14366,7 @@
         <v>4</v>
       </c>
       <c r="F812" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.15">
@@ -14383,7 +14383,7 @@
         <v>4</v>
       </c>
       <c r="F813" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.15">
@@ -14400,7 +14400,7 @@
         <v>4</v>
       </c>
       <c r="F814" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.15">
@@ -14417,7 +14417,7 @@
         <v>4</v>
       </c>
       <c r="F815" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.15">
@@ -14434,7 +14434,7 @@
         <v>4</v>
       </c>
       <c r="F816" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.15">
@@ -14451,7 +14451,7 @@
         <v>4</v>
       </c>
       <c r="F817" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.15">
@@ -14468,7 +14468,7 @@
         <v>4</v>
       </c>
       <c r="F818" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.15">
@@ -14485,7 +14485,7 @@
         <v>4</v>
       </c>
       <c r="F819" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.15">
@@ -14502,7 +14502,7 @@
         <v>4</v>
       </c>
       <c r="F820" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.15">
@@ -14519,7 +14519,7 @@
         <v>4</v>
       </c>
       <c r="F821" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.15">
@@ -14536,7 +14536,7 @@
         <v>4</v>
       </c>
       <c r="F822" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.15">
@@ -14553,7 +14553,7 @@
         <v>4</v>
       </c>
       <c r="F823" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.15">
@@ -14570,7 +14570,7 @@
         <v>4</v>
       </c>
       <c r="F824" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.15">
@@ -14587,7 +14587,7 @@
         <v>4</v>
       </c>
       <c r="F825" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.15">
@@ -14604,7 +14604,7 @@
         <v>4</v>
       </c>
       <c r="F826" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.15">
@@ -14621,7 +14621,7 @@
         <v>4</v>
       </c>
       <c r="F827" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.15">
@@ -14638,7 +14638,7 @@
         <v>4</v>
       </c>
       <c r="F828" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.15">
@@ -14655,7 +14655,7 @@
         <v>4</v>
       </c>
       <c r="F829" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.15">
@@ -14672,7 +14672,7 @@
         <v>4</v>
       </c>
       <c r="F830" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.15">
@@ -14689,7 +14689,7 @@
         <v>4</v>
       </c>
       <c r="F831" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.15">
@@ -14706,7 +14706,7 @@
         <v>4</v>
       </c>
       <c r="F832" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.15">
@@ -14723,7 +14723,7 @@
         <v>4</v>
       </c>
       <c r="F833" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.15">
@@ -14740,7 +14740,7 @@
         <v>4</v>
       </c>
       <c r="F834" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.15">
@@ -14757,7 +14757,7 @@
         <v>4</v>
       </c>
       <c r="F835" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.15">
@@ -14774,7 +14774,7 @@
         <v>4</v>
       </c>
       <c r="F836" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.15">
@@ -14791,7 +14791,7 @@
         <v>4</v>
       </c>
       <c r="F837" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.15">
@@ -14808,7 +14808,7 @@
         <v>4</v>
       </c>
       <c r="F838" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.15">
@@ -14825,7 +14825,7 @@
         <v>4</v>
       </c>
       <c r="F839" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.15">
@@ -14842,7 +14842,7 @@
         <v>4</v>
       </c>
       <c r="F840" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.15">
@@ -14859,7 +14859,7 @@
         <v>4</v>
       </c>
       <c r="F841" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.15">
@@ -14876,7 +14876,7 @@
         <v>4</v>
       </c>
       <c r="F842" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.15">
@@ -14893,7 +14893,7 @@
         <v>4</v>
       </c>
       <c r="F843" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.15">
@@ -14910,7 +14910,7 @@
         <v>4</v>
       </c>
       <c r="F844" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.15">
@@ -14927,7 +14927,7 @@
         <v>4</v>
       </c>
       <c r="F845" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.15">
@@ -14944,7 +14944,7 @@
         <v>4</v>
       </c>
       <c r="F846" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.15">
@@ -14961,7 +14961,7 @@
         <v>4</v>
       </c>
       <c r="F847" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.15">
@@ -14978,7 +14978,7 @@
         <v>4</v>
       </c>
       <c r="F848" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.15">
@@ -14995,7 +14995,7 @@
         <v>4</v>
       </c>
       <c r="F849" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.15">
@@ -15012,7 +15012,7 @@
         <v>4</v>
       </c>
       <c r="F850" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.15">
@@ -15029,7 +15029,7 @@
         <v>4</v>
       </c>
       <c r="F851" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.15">
@@ -15046,7 +15046,7 @@
         <v>4</v>
       </c>
       <c r="F852" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.15">
@@ -15063,7 +15063,7 @@
         <v>4</v>
       </c>
       <c r="F853" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.15">
@@ -15080,7 +15080,7 @@
         <v>4</v>
       </c>
       <c r="F854" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.15">
@@ -15097,7 +15097,7 @@
         <v>4</v>
       </c>
       <c r="F855" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.15">
@@ -15114,7 +15114,7 @@
         <v>4</v>
       </c>
       <c r="F856" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.15">
@@ -15131,7 +15131,7 @@
         <v>4</v>
       </c>
       <c r="F857" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.15">
@@ -15148,7 +15148,7 @@
         <v>4</v>
       </c>
       <c r="F858" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.15">
@@ -15165,7 +15165,7 @@
         <v>4</v>
       </c>
       <c r="F859" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.15">
@@ -15182,7 +15182,7 @@
         <v>4</v>
       </c>
       <c r="F860" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.15">
@@ -15199,7 +15199,7 @@
         <v>4</v>
       </c>
       <c r="F861" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.15">
@@ -15216,7 +15216,7 @@
         <v>4</v>
       </c>
       <c r="F862" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.15">
@@ -15233,7 +15233,7 @@
         <v>4</v>
       </c>
       <c r="F863" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.15">
@@ -15250,7 +15250,7 @@
         <v>4</v>
       </c>
       <c r="F864" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.15">
@@ -15267,7 +15267,7 @@
         <v>4</v>
       </c>
       <c r="F865" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.15">
@@ -15284,7 +15284,7 @@
         <v>4</v>
       </c>
       <c r="F866" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.15">
@@ -15301,7 +15301,7 @@
         <v>4</v>
       </c>
       <c r="F867" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.15">
@@ -15318,7 +15318,7 @@
         <v>4</v>
       </c>
       <c r="F868" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.15">
@@ -15335,7 +15335,7 @@
         <v>4</v>
       </c>
       <c r="F869" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
